--- a/docs/01.요구사항정의서_샘플_v1.1.xlsx
+++ b/docs/01.요구사항정의서_샘플_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FES09\FES09-Project-Sample\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ECA605-7A72-4DA7-97A0-FD6E68B7C390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED355180-ACB7-40E0-BA34-9030CD376C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'기능 요구사항'!$A$1:$G$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'기능 요구사항'!$A$1:$F$30</definedName>
     <definedName name="Status">'[1]Defect 코드'!#REF!</definedName>
     <definedName name="결과조건">'[1]Defect 코드'!#REF!</definedName>
     <definedName name="결함유형">'[1]Defect 코드'!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>수용</t>
   </si>
@@ -49,30 +49,6 @@
 부분수용 시)</t>
   </si>
   <si>
-    <t>SFR-002-01</t>
-  </si>
-  <si>
-    <t>SFR-002-02</t>
-  </si>
-  <si>
-    <t>SFR-002-04</t>
-  </si>
-  <si>
-    <t>SFR-002-05</t>
-  </si>
-  <si>
-    <t>SFR-002-03</t>
-  </si>
-  <si>
-    <t>SFR-003-02</t>
-  </si>
-  <si>
-    <t>SFR-003-04</t>
-  </si>
-  <si>
-    <t>SFR-003-03</t>
-  </si>
-  <si>
     <t xml:space="preserve">요구사항명  </t>
   </si>
   <si>
@@ -98,9 +74,6 @@
 여부</t>
   </si>
   <si>
-    <t>요구사항 ID</t>
-  </si>
-  <si>
     <t>상세내용</t>
   </si>
   <si>
@@ -263,22 +236,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>SFR-002-06</t>
-  </si>
-  <si>
-    <t>SFR-002-07</t>
-  </si>
-  <si>
-    <t>SFR-002-08</t>
-  </si>
-  <si>
-    <t>SFR-002-09</t>
-  </si>
-  <si>
-    <t>SFR-003-01</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>하</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -287,9 +244,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>SFR-002-10</t>
-  </si>
-  <si>
     <t>비회원 댓글 추가</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -314,10 +268,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>SFR-001-01</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>비빌번호 변경</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -327,30 +277,6 @@
   </si>
   <si>
     <t>소셜 로그인 시 자동으로 회원 가입</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR-001-02</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR-001-03</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR-001-04</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR-001-05</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR-001-06</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR-001-07</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -513,6 +439,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -530,7 +469,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -575,9 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,16 +565,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,6 +579,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -874,7 +807,7 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1928876</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1259,914 +1192,800 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A5:G71"/>
+  <dimension ref="A5:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1">
+    <row r="5" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A10" s="21" t="s">
+      <c r="D13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="C14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="E15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" s="7" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="23" t="s">
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="C18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A19" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="B19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="C19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="23" t="s">
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" ht="32.450000000000003" customHeight="1">
+      <c r="A20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="C20" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="E20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="C21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" s="7" customFormat="1" ht="25.9" customHeight="1">
+      <c r="A22" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="C22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="E22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" s="7" customFormat="1" ht="38.450000000000003" customHeight="1">
+      <c r="A23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="7" customFormat="1" ht="28.15" customHeight="1">
+      <c r="A24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" s="7" customFormat="1" ht="27">
+      <c r="A25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A26" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="E26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:6" s="6" customFormat="1" ht="45" customHeight="1">
+      <c r="A27" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A17" s="22" t="s">
+      <c r="E27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="1:6" s="6" customFormat="1" ht="34.9" customHeight="1">
+      <c r="A28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="C28" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A18" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="E28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" s="6" customFormat="1" ht="34.9" customHeight="1">
+      <c r="A29" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="E29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1">
+      <c r="A30" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="32.450000000000003" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="E30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="25.9" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A24" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="27">
-      <c r="A25" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A26" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" ht="45" customHeight="1">
-      <c r="A27" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" ht="34.9" customHeight="1">
-      <c r="A28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" ht="34.9" customHeight="1">
-      <c r="A29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" ht="33" customHeight="1">
-      <c r="A30" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:7" s="15" customFormat="1" ht="22.15" customHeight="1">
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="1:6" s="15" customFormat="1" ht="22.15" customHeight="1">
       <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="30"/>
-    </row>
-    <row r="32" spans="1:7" s="15" customFormat="1">
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="1:6" s="15" customFormat="1">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="1:7" s="15" customFormat="1">
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:6" s="15" customFormat="1">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="30"/>
-    </row>
-    <row r="34" spans="1:7" s="15" customFormat="1">
+      <c r="F33" s="29"/>
+    </row>
+    <row r="34" spans="1:6" s="15" customFormat="1">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="30"/>
-    </row>
-    <row r="35" spans="1:7" s="15" customFormat="1">
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="1:6" s="15" customFormat="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="30"/>
-    </row>
-    <row r="36" spans="1:7" s="15" customFormat="1">
+      <c r="F35" s="29"/>
+    </row>
+    <row r="36" spans="1:6" s="15" customFormat="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="30"/>
-    </row>
-    <row r="37" spans="1:7" s="15" customFormat="1">
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" spans="1:6" s="15" customFormat="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="30"/>
-    </row>
-    <row r="38" spans="1:7" s="15" customFormat="1">
+      <c r="F37" s="29"/>
+    </row>
+    <row r="38" spans="1:6" s="15" customFormat="1">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="30"/>
-    </row>
-    <row r="39" spans="1:7" s="15" customFormat="1">
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:6" s="15" customFormat="1">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="30"/>
-    </row>
-    <row r="40" spans="1:7" s="15" customFormat="1">
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="1:6" s="15" customFormat="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="30"/>
-    </row>
-    <row r="41" spans="1:7" s="15" customFormat="1">
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="1:6" s="15" customFormat="1">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="30"/>
-    </row>
-    <row r="42" spans="1:7" s="15" customFormat="1">
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:6" s="15" customFormat="1">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="30"/>
-    </row>
-    <row r="43" spans="1:7" s="15" customFormat="1">
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="1:6" s="15" customFormat="1">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="30"/>
-    </row>
-    <row r="44" spans="1:7" s="15" customFormat="1">
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="1:6" s="15" customFormat="1">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="30"/>
-    </row>
-    <row r="45" spans="1:7" s="15" customFormat="1">
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="1:6" s="15" customFormat="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="30"/>
-    </row>
-    <row r="46" spans="1:7" s="15" customFormat="1">
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="1:6" s="15" customFormat="1">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="30"/>
-    </row>
-    <row r="47" spans="1:7" s="15" customFormat="1">
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:6" s="15" customFormat="1">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="30"/>
-    </row>
-    <row r="48" spans="1:7" s="15" customFormat="1">
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6" s="15" customFormat="1">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="30"/>
-    </row>
-    <row r="49" spans="1:7" s="15" customFormat="1">
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="1:6" s="15" customFormat="1">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="30"/>
-    </row>
-    <row r="50" spans="1:7" s="15" customFormat="1">
+      <c r="F49" s="29"/>
+    </row>
+    <row r="50" spans="1:6" s="15" customFormat="1">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="30"/>
-    </row>
-    <row r="51" spans="1:7" s="15" customFormat="1">
+      <c r="F50" s="29"/>
+    </row>
+    <row r="51" spans="1:6" s="15" customFormat="1">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="30"/>
-    </row>
-    <row r="52" spans="1:7" s="15" customFormat="1">
+      <c r="F51" s="29"/>
+    </row>
+    <row r="52" spans="1:6" s="15" customFormat="1">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="30"/>
-    </row>
-    <row r="53" spans="1:7" s="15" customFormat="1">
+      <c r="F52" s="29"/>
+    </row>
+    <row r="53" spans="1:6" s="15" customFormat="1">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="30"/>
-    </row>
-    <row r="54" spans="1:7" s="15" customFormat="1">
+      <c r="F53" s="29"/>
+    </row>
+    <row r="54" spans="1:6" s="15" customFormat="1">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="55" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="55" spans="1:6" s="15" customFormat="1">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-    </row>
-    <row r="56" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="56" spans="1:6" s="15" customFormat="1">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-    </row>
-    <row r="57" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="57" spans="1:6" s="15" customFormat="1">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-    </row>
-    <row r="58" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="58" spans="1:6" s="15" customFormat="1">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-    </row>
-    <row r="59" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="59" spans="1:6" s="15" customFormat="1">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-    </row>
-    <row r="60" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="60" spans="1:6" s="15" customFormat="1">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-    </row>
-    <row r="61" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="61" spans="1:6" s="15" customFormat="1">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-    </row>
-    <row r="62" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="62" spans="1:6" s="15" customFormat="1">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="63" spans="1:6" s="15" customFormat="1">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-    </row>
-    <row r="64" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="64" spans="1:6" s="15" customFormat="1">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-    </row>
-    <row r="65" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="65" spans="1:6" s="15" customFormat="1">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-    </row>
-    <row r="66" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="66" spans="1:6" s="15" customFormat="1">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-    </row>
-    <row r="67" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="67" spans="1:6" s="15" customFormat="1">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-    </row>
-    <row r="68" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="68" spans="1:6" s="15" customFormat="1">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-    </row>
-    <row r="69" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="69" spans="1:6" s="15" customFormat="1">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-    </row>
-    <row r="70" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="70" spans="1:6" s="15" customFormat="1">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-    </row>
-    <row r="71" spans="1:7" s="15" customFormat="1">
+    </row>
+    <row r="71" spans="1:6" s="15" customFormat="1">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
+  <mergeCells count="7">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
